--- a/outputs/PLS_DA_loadings.xlsx
+++ b/outputs/PLS_DA_loadings.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.135611748813894</v>
+        <v>-0.1351389148690272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1130294857274193</v>
+        <v>0.1124159080809246</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.1329625268568802</v>
+        <v>-0.1324506564044957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1104367994098137</v>
+        <v>0.1096298481155475</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1477165049125406</v>
+        <v>-0.1471216499529185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08922390939838788</v>
+        <v>0.08772139357562841</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1995218117495986</v>
+        <v>0.2000648167117957</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004220879745353914</v>
+        <v>0.00363607923794322</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.1274523990905673</v>
+        <v>-0.1281945632665311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08251350026177208</v>
+        <v>0.08408248239198585</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.694146810376191e-19</v>
+        <v>3.762377070662757e-19</v>
       </c>
       <c r="C7" t="n">
-        <v>8.006025742812197e-20</v>
+        <v>7.936137469965549e-20</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1345483322115003</v>
+        <v>0.1350731493900826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03693181851118536</v>
+        <v>0.03669225176536647</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1564187007398326</v>
+        <v>0.1561758148993409</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02307125079135796</v>
+        <v>0.02436001551547648</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02460937599928252</v>
+        <v>-0.02308610692983168</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.06813988542572781</v>
+        <v>-0.06552138527739852</v>
       </c>
     </row>
     <row r="11">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06750961668988656</v>
+        <v>0.06575575520897448</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0733230500317619</v>
+        <v>-0.06971115752934416</v>
       </c>
     </row>
     <row r="12">
@@ -587,10 +587,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1455125925638739</v>
+        <v>0.1476178700137641</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1032392678733324</v>
+        <v>0.09802938964246226</v>
       </c>
     </row>
     <row r="13">
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.2010275669749248</v>
+        <v>-0.2012888116008082</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1621958211851754</v>
+        <v>0.1647540343842583</v>
       </c>
     </row>
     <row r="14">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02460937599928252</v>
+        <v>0.02308610692983169</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06813988542572781</v>
+        <v>0.06552138527739852</v>
       </c>
     </row>
     <row r="15">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.06750961668988656</v>
+        <v>-0.06575575520897448</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0733230500317619</v>
+        <v>0.06971115752934418</v>
       </c>
     </row>
     <row r="16">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.1455125925638739</v>
+        <v>-0.1476178700137641</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.1032392678733324</v>
+        <v>-0.09802938964246226</v>
       </c>
     </row>
     <row r="17">
@@ -652,10 +652,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2010275669749248</v>
+        <v>0.2012888116008082</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1621958211851754</v>
+        <v>-0.1647540343842583</v>
       </c>
     </row>
     <row r="18">
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.06385567368185177</v>
+        <v>-0.06296576766306489</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1473110168782172</v>
+        <v>0.1469569737961951</v>
       </c>
     </row>
     <row r="19">
@@ -678,10 +678,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01643526386734011</v>
+        <v>0.01445272385402254</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.005969192250274711</v>
+        <v>-0.008112702888145761</v>
       </c>
     </row>
     <row r="20">
@@ -691,10 +691,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02556189905808636</v>
+        <v>0.02602286334398029</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1788013750116378</v>
+        <v>0.1812845018096878</v>
       </c>
     </row>
     <row r="21">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.1336784230938615</v>
+        <v>0.1355245092939188</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2358233220165162</v>
+        <v>0.2330056866690134</v>
       </c>
     </row>
     <row r="22">
@@ -717,10 +717,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.06117989272620093</v>
+        <v>-0.05992710309192857</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1017353866834559</v>
+        <v>0.1008948335097088</v>
       </c>
     </row>
     <row r="23">
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.05639884126808282</v>
+        <v>-0.05592742925842378</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01557231345000167</v>
+        <v>0.01580046968089509</v>
       </c>
     </row>
     <row r="24">
@@ -743,10 +743,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1168866731903523</v>
+        <v>0.1190545497625534</v>
       </c>
       <c r="C24" t="n">
-        <v>0.106810669762484</v>
+        <v>0.1031449946377996</v>
       </c>
     </row>
     <row r="25">
@@ -756,10 +756,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.02737292091020304</v>
+        <v>-0.02807736576713644</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1387518439314413</v>
+        <v>0.1405608331645091</v>
       </c>
     </row>
     <row r="26">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.1214912587999123</v>
+        <v>0.1220332764514645</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1961628227417695</v>
+        <v>0.1949299041190789</v>
       </c>
     </row>
     <row r="27">
@@ -782,10 +782,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1038930445698832</v>
+        <v>0.1033793849022615</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1444497754903806</v>
+        <v>0.1438954730668454</v>
       </c>
     </row>
     <row r="28">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.08452422810056646</v>
+        <v>0.08595693074606016</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1647567094850562</v>
+        <v>0.1629816210810342</v>
       </c>
     </row>
     <row r="29">
@@ -808,10 +808,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.07988486869050895</v>
+        <v>0.08029178291009662</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1656161558365252</v>
+        <v>0.165033945250911</v>
       </c>
     </row>
     <row r="30">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1706400585845828</v>
+        <v>0.1717038210125613</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1101768914378917</v>
+        <v>0.1100838834264012</v>
       </c>
     </row>
     <row r="31">
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.1669230469943295</v>
+        <v>0.1666626651038438</v>
       </c>
       <c r="C31" t="n">
-        <v>0.04986404630585649</v>
+        <v>0.04891500711678601</v>
       </c>
     </row>
     <row r="32">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.0654071219263892</v>
+        <v>-0.0653943753082722</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1648303743084369</v>
+        <v>0.1663528740517796</v>
       </c>
     </row>
     <row r="33">
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.1577248877264339</v>
+        <v>-0.157714841749852</v>
       </c>
       <c r="C33" t="n">
-        <v>0.009894378603085905</v>
+        <v>0.009251019783817351</v>
       </c>
     </row>
     <row r="34">
@@ -873,10 +873,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.1564212982672172</v>
+        <v>-0.1561639828520011</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.107541376615142</v>
+        <v>-0.1093914537723474</v>
       </c>
     </row>
     <row r="35">
@@ -886,10 +886,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.0768890913525265</v>
+        <v>-0.07599515122718474</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.07455445976665979</v>
+        <v>-0.07604738212418244</v>
       </c>
     </row>
     <row r="36">
@@ -899,10 +899,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.07308468497077832</v>
+        <v>-0.07198243670566305</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.04850424393630098</v>
+        <v>-0.05035035710165084</v>
       </c>
     </row>
     <row r="37">
@@ -912,10 +912,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.1455781323262757</v>
+        <v>-0.1462239671283435</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1357926143671036</v>
+        <v>-0.1363626488912311</v>
       </c>
     </row>
     <row r="38">
@@ -925,10 +925,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.1744282470330547</v>
+        <v>-0.1753296919984964</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.01016954408816979</v>
+        <v>-0.007493866767738445</v>
       </c>
     </row>
     <row r="39">
@@ -938,10 +938,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.150637707198618</v>
+        <v>-0.1507840664533826</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00938030994061549</v>
+        <v>0.009279490408493912</v>
       </c>
     </row>
     <row r="40">
@@ -951,10 +951,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.1215503642062252</v>
+        <v>-0.1212293141752196</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.05408757115285859</v>
+        <v>-0.05588111353687589</v>
       </c>
     </row>
     <row r="41">
@@ -964,10 +964,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.1892975479774812</v>
+        <v>-0.1897201738484993</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06768450484232366</v>
+        <v>-0.06800535998664989</v>
       </c>
     </row>
     <row r="42">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.1520367607775973</v>
+        <v>-0.1521397633987104</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1243293219521117</v>
+        <v>-0.1257884006950923</v>
       </c>
     </row>
     <row r="43">
@@ -990,10 +990,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.09258785833722553</v>
+        <v>-0.09208255476362778</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.04622919848169285</v>
+        <v>-0.04394485052290725</v>
       </c>
     </row>
     <row r="44">
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.1630552363619876</v>
+        <v>-0.1636338544748993</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.07815763048718438</v>
+        <v>-0.07689789160894489</v>
       </c>
     </row>
     <row r="45">
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.0577887704764482</v>
+        <v>-0.05806615889209707</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1615489371911604</v>
+        <v>0.162543885792046</v>
       </c>
     </row>
     <row r="46">
@@ -1029,10 +1029,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.04594690194926532</v>
+        <v>-0.04692444957521608</v>
       </c>
       <c r="C46" t="n">
-        <v>0.1457610558906688</v>
+        <v>0.1475000347104568</v>
       </c>
     </row>
     <row r="47">
@@ -1042,10 +1042,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.0230373237475205</v>
+        <v>-0.02234117031629975</v>
       </c>
       <c r="C47" t="n">
-        <v>0.187934224762749</v>
+        <v>0.1874804504431287</v>
       </c>
     </row>
     <row r="48">
@@ -1055,10 +1055,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.09733089569450203</v>
+        <v>0.09612006059847218</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.08340563091371252</v>
+        <v>-0.08061931544509389</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.03555520286594074</v>
+        <v>-0.03618334041645622</v>
       </c>
       <c r="C49" t="n">
-        <v>0.177296403810031</v>
+        <v>0.1783792840769549</v>
       </c>
     </row>
     <row r="50">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.008481010421873674</v>
+        <v>-0.008937498399136577</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1669763582547929</v>
+        <v>0.1685233822366477</v>
       </c>
     </row>
     <row r="51">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.01699027191987074</v>
+        <v>-0.01741037489461561</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1663423509019227</v>
+        <v>0.1680583066153108</v>
       </c>
     </row>
     <row r="52">
@@ -1107,10 +1107,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.1310033865246277</v>
+        <v>0.1306810438423497</v>
       </c>
       <c r="C52" t="n">
-        <v>0.008990540342968421</v>
+        <v>0.01124339196065031</v>
       </c>
     </row>
     <row r="53">
@@ -1120,10 +1120,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.01746767490228151</v>
+        <v>-0.01788291866049604</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1670179785726641</v>
+        <v>0.1687633804862414</v>
       </c>
     </row>
     <row r="54">
@@ -1133,10 +1133,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.04757263122692094</v>
+        <v>0.04806727664567498</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2347634212556296</v>
+        <v>0.2353056093041544</v>
       </c>
     </row>
     <row r="55">
@@ -1146,10 +1146,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1380499992652508</v>
+        <v>0.1378331756772996</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1337372067154171</v>
+        <v>-0.1342124571015106</v>
       </c>
     </row>
     <row r="56">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.138051213926517</v>
+        <v>-0.1378344612741787</v>
       </c>
       <c r="C56" t="n">
-        <v>0.133743109982574</v>
+        <v>0.1342186873645996</v>
       </c>
     </row>
     <row r="57">
@@ -1172,10 +1172,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.1369206939361452</v>
+        <v>-0.1367067492542676</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1334552440776545</v>
+        <v>0.1338932482390041</v>
       </c>
     </row>
     <row r="58">
@@ -1185,10 +1185,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1378690871146362</v>
+        <v>0.1376536980087644</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.1337767845170491</v>
+        <v>-0.1342504860737075</v>
       </c>
     </row>
     <row r="59">
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1369280998826932</v>
+        <v>0.1365900192172556</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.1226030063431843</v>
+        <v>-0.1224751498848747</v>
       </c>
     </row>
     <row r="60">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1380502072466752</v>
+        <v>0.1378333741495289</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.1337377622212268</v>
+        <v>-0.1342130236677478</v>
       </c>
     </row>
     <row r="61">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.1380514157076208</v>
+        <v>-0.1378346525744623</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1337437669988134</v>
+        <v>0.1342193569640485</v>
       </c>
     </row>
     <row r="62">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.136923193049409</v>
+        <v>-0.1367091883428294</v>
       </c>
       <c r="C62" t="n">
-        <v>0.133462218191843</v>
+        <v>0.1339003699999693</v>
       </c>
     </row>
     <row r="63">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1378695772239124</v>
+        <v>0.1376541743012877</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.1337781894263775</v>
+        <v>-0.1342519199915337</v>
       </c>
     </row>
     <row r="64">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1369411008132438</v>
+        <v>0.1366024094062621</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.1226396438828195</v>
+        <v>-0.1225125433700511</v>
       </c>
     </row>
     <row r="65">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1370900010528856</v>
+        <v>0.1368826751617277</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.134930845764152</v>
+        <v>-0.1354585429968455</v>
       </c>
     </row>
     <row r="66">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.1346570030685807</v>
+        <v>-0.1344691258866087</v>
       </c>
       <c r="C66" t="n">
-        <v>0.137461123295189</v>
+        <v>0.1380968047657183</v>
       </c>
     </row>
     <row r="67">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.1365179464735833</v>
+        <v>-0.1363076065420475</v>
       </c>
       <c r="C67" t="n">
-        <v>0.134027871598373</v>
+        <v>0.1344908854008512</v>
       </c>
     </row>
     <row r="68">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1358972382255379</v>
+        <v>0.1356991894640668</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.1360260356121989</v>
+        <v>-0.136597323177928</v>
       </c>
     </row>
     <row r="69">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1370240188222138</v>
+        <v>0.1366737541707277</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1214582826485867</v>
+        <v>-0.1212706397220938</v>
       </c>
     </row>
     <row r="70">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1371549033806295</v>
+        <v>0.1369472512515113</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.1348835857752032</v>
+        <v>-0.1354094383257293</v>
       </c>
     </row>
     <row r="71">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.1352711922388169</v>
+        <v>-0.1350792941469234</v>
       </c>
       <c r="C71" t="n">
-        <v>0.1369140558127594</v>
+        <v>0.1375271162932529</v>
       </c>
     </row>
     <row r="72">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.1365765170705984</v>
+        <v>-0.1363656336634082</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1339543328174166</v>
+        <v>0.1344140428202406</v>
       </c>
     </row>
     <row r="73">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1362220291047487</v>
+        <v>0.1360218518757797</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.1357346927309932</v>
+        <v>-0.1362938901658499</v>
       </c>
     </row>
     <row r="74">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1369947355421925</v>
+        <v>0.1366436280177499</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.1213807087338276</v>
+        <v>-0.1211886978381593</v>
       </c>
     </row>
     <row r="75">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.0004778773344356071</v>
+        <v>-0.00044265714013917</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.007060561515041948</v>
+        <v>-0.007236494441970297</v>
       </c>
     </row>
   </sheetData>
